--- a/example/data.xlsx
+++ b/example/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,26 @@
           <t>ReferenceFilename</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Ep</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Eh</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>ip</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Ah</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -583,10 +603,10 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>0.03104080259</v>
+        <v>6.630184887e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>8.917e-05</v>
+        <v>1.779e-05</v>
       </c>
       <c r="Q2" t="b">
         <v>0</v>
@@ -596,11 +616,15 @@
           <t>FERRO BARE.csv</t>
         </is>
       </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>July 1. 2025   13:51:56</t>
+          <t>July 4. 2025   17:02:03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -610,7 +634,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>d:\serah 3rd year\02-09-25 l-lysine stability\ferro mod 9 cyclesre.csv</t>
+          <t>d:\serah 2nd year\04-07-25 scanrate opt ll\-0.5 to 1.7\ferro mod -0.5 to 1.7 v.csv</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -651,14 +675,14 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>FERRO MOD 9 0.0 to 1.7.csv</t>
+          <t>FERRO MOD -0.5 to 1.7 V.csv</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>0.018340699092</v>
+        <v>9.459979603000001e-06</v>
       </c>
       <c r="P3" t="n">
-        <v>2.689668e-05</v>
+        <v>5.81e-05</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
@@ -666,13 +690,33 @@
       <c r="R3" t="inlineStr">
         <is>
           <t>FERRO BARE.csv</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.081V</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.170V</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-2.004e-5A</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-3.801e-5C</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sept. 12. 2025   15:54:51</t>
+          <t>July 1. 2025   13:51:56</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -682,7 +726,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>d:\serah 3rd year\02-09-25 l-lysine stability\ferro bare.csv</t>
+          <t>d:\serah 3rd year\02-09-25 l-lysine stability\ferro mod 9 cyclesre.csv</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -723,23 +767,103 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>FERRO MOD 9 0.0 to 1.7.csv</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>2.1094579375e-05</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8.1994e-05</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
           <t>FERRO BARE.csv</t>
         </is>
       </c>
-      <c r="O4" t="n">
-        <v>0.034293803517</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8.816999999999999e-05</v>
-      </c>
-      <c r="Q4" t="b">
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sept. 12. 2025   15:54:51</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cyclic Voltammetry</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>d:\serah 3rd year\02-09-25 l-lysine stability\ferro bare.csv</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Experiment</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CHI760D</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>FERRO BARE.csv</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>4.96308367531817e-26</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
         <v>1</v>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>FERRO BARE.csv</t>
         </is>
       </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
